--- a/data/headache.xlsx
+++ b/data/headache.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joyhong/PycharmProjects/headache/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE9FFD5-8121-554B-BC92-C9D99E4BC5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059117C9-20C7-CC46-9F5D-5F9CF071A483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="500" windowWidth="21200" windowHeight="17500" activeTab="1" xr2:uid="{7CFB6E6C-A135-1340-812E-7FCBFB8FCBA5}"/>
+    <workbookView xWindow="5700" yWindow="500" windowWidth="21200" windowHeight="17500" xr2:uid="{7CFB6E6C-A135-1340-812E-7FCBFB8FCBA5}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="6" r:id="rId1"/>
     <sheet name="concept" sheetId="4" r:id="rId2"/>
     <sheet name="ConceptScheme" sheetId="5" r:id="rId3"/>
-    <sheet name="증상" sheetId="2" r:id="rId4"/>
+    <sheet name="DC" sheetId="7" r:id="rId4"/>
+    <sheet name="SY" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="383">
   <si>
     <t>Migraine</t>
   </si>
@@ -64,10 +65,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>중등도 또는 심도의 통증강도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>증상</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -80,89 +77,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>일상의 신체활동(걷거나 계단을 오르는 등)에 의해 악화되거나 이를 회피하게 됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두통 지속</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>치료하지 않거나 치료가 제대로 되지 않았을 경우</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>구역 그리고/또는 구토</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빛공포증과 소리공포증</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>밝은 빛, 시끄러운 소리 등이 거슬림</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메스꺼움, 울렁거림, 체한 느낌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Symptoms</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SMPT-001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMPT-002</t>
-  </si>
-  <si>
-    <t>SMPT-003</t>
-  </si>
-  <si>
-    <t>SMPT-004</t>
-  </si>
-  <si>
-    <t>SMPT-005</t>
-  </si>
-  <si>
-    <t>SMPT-006</t>
-  </si>
-  <si>
-    <t>SMPT-007</t>
-  </si>
-  <si>
-    <t>SMPT-008</t>
-  </si>
-  <si>
-    <t>SMPT-009</t>
-  </si>
-  <si>
-    <t>SMPT-010</t>
-  </si>
-  <si>
-    <t>SMPT-011</t>
-  </si>
-  <si>
-    <t>SMPT-012</t>
-  </si>
-  <si>
-    <t>SMPT-013</t>
-  </si>
-  <si>
-    <t>SMPT-014</t>
-  </si>
-  <si>
     <t>Migraine_with_aura</t>
   </si>
   <si>
@@ -16616,6 +16538,237 @@
   </si>
   <si>
     <t>일치한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소한 5번 발생하는 발작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소발작5회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두통 발작이 4-72시간 지속</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속지간_4-72시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4가지 특성 중 최소한 두가지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편측위치|박동양상|일상신체활동_회피|중증도_심도_통증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두통이 있는 동안 최소한 한가지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구역|구토|빛공포증|소리공포증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전히 가역적인 조짐증상이 각각 또는 동시에 나타남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>말|시각|감각|언어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소한 2번 발생하는 발작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소발작2회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전히 가역적인 조짐증상 중 한가지 이상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>망막|뇌간|운동|언어|말|감각|시각</t>
+  </si>
+  <si>
+    <t>조짐과동시_조짐60분이내_두통발생|조짐증상_지속시간_5-60분|편측위치|두가지이상증상이연속해서발생|조짐증상5분이상에걸쳐퍼짐</t>
+  </si>
+  <si>
+    <t>중증도_심도_통증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일상신체활동_회피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구토</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리공포증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛공포증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시끄러운 소리가  거슬림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밝은 빛이 거슬림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두가지이상증상이연속해서발생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>말</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>망막</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>운동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조짐과동시_조짐60분이내_두통발생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조짐증상5분이상에걸쳐퍼짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조짐증상_지속시간_5-60분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC_1_1_A</t>
+  </si>
+  <si>
+    <t>DC_1_1_B</t>
+  </si>
+  <si>
+    <t>DC_1_1_D</t>
+  </si>
+  <si>
+    <t>DC_1_2_1_B</t>
+  </si>
+  <si>
+    <t>DC_1_2_A</t>
+  </si>
+  <si>
+    <t>DC_1_2_B</t>
+  </si>
+  <si>
+    <t>DC_1_2_C</t>
+  </si>
+  <si>
+    <t>DC_1_1_C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disease</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>질환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>determinedBy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결정된다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>질환이 결정되는 기준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspected</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의심되는 질환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의심되다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Migraine_with_aura</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Migraine_with_typical_aura</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Migraine_with_aura|Migraine_with_typical_aura</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datatypeproperty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통증이 지속되는 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frequency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발작이 발생한 빈도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -17043,10 +17196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AA2305-4734-0145-8DA7-0E2C81034630}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -17057,183 +17210,268 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="C1" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="D1" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="E1" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="F1" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="D3" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="D4" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="C5" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="C7" t="s">
-        <v>336</v>
-      </c>
-      <c r="D7" t="s">
-        <v>330</v>
-      </c>
-      <c r="E7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="B8" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="C8" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="D8" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="E8" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="B9" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="C9" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="D9" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="E9" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="F9" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="B10" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="C10" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="D10" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="E10" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="B11" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="C11" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="D11" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="E11" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="F11" t="s">
-        <v>327</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C13" t="s">
+        <v>368</v>
+      </c>
+      <c r="D13" t="s">
+        <v>369</v>
+      </c>
+      <c r="E13" t="s">
+        <v>365</v>
+      </c>
+      <c r="F13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" t="s">
+        <v>370</v>
+      </c>
+      <c r="C14" t="s">
+        <v>372</v>
+      </c>
+      <c r="D14" t="s">
+        <v>371</v>
+      </c>
+      <c r="E14" t="s">
+        <v>303</v>
+      </c>
+      <c r="F14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>376</v>
+      </c>
+      <c r="B15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" t="s">
+        <v>378</v>
+      </c>
+      <c r="D15" t="s">
+        <v>379</v>
+      </c>
+      <c r="E15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C16" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16" t="s">
+        <v>382</v>
+      </c>
+      <c r="E16" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -17246,8 +17484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF21A4F4-E8E8-7C46-89F2-968904021068}">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -17258,33 +17496,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="D1" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="E1" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="F1" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -17292,1543 +17530,1543 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="F4" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="F5" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>374</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F6" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F8" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E9" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="F9" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F10" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E33" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D47" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E47" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="F47" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D49" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D50" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D51" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D53" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D54" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D55" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D56" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D57" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D58" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D59" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D60" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D61" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D62" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D63" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D64" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D65" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D66" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D67" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D68" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="D69" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D70" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E70" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="F70" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D71" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D72" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E72" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="F72" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D73" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D74" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E74" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="F74" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D75" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D76" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D77" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F77" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D78" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D79" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80" t="s">
         <v>203</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D80" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D81" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D82" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D83" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D84" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D85" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D86" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D87" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D88" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D89" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D90" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D91" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D92" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D93" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D94" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D95" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D96" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -18849,40 +19087,40 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="C1" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -18892,148 +19130,297 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0E49E5-B160-1747-9F02-662BCBB80A2B}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5657090F-5A21-D542-A3FC-3D362513AA9C}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>197</v>
+      </c>
+      <c r="B1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0E49E5-B160-1747-9F02-662BCBB80A2B}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" t="s">
+        <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" t="s">
+        <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>27</v>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>28</v>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>29</v>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>30</v>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>351</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>31</v>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>352</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>32</v>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>33</v>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
